--- a/Practica 5/Product Backlog.xlsx
+++ b/Practica 5/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\PSG\Practica 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\PSG\trunk\Practica 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t xml:space="preserve">Prioridad </t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Historia extra en el sprint 1</t>
+  </si>
+  <si>
+    <t>no aceptada</t>
   </si>
 </sst>
 </file>
@@ -558,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,6 +673,9 @@
       <c r="F5" s="2">
         <v>0.40277777777777773</v>
       </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
       <c r="H5">
         <v>20</v>
       </c>
@@ -776,6 +782,9 @@
       </c>
       <c r="F10" s="2">
         <v>0.41944444444444445</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
